--- a/data/trans_orig/P36B05_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B05_2023-Estudios-trans_orig.xlsx
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la frecuencia de consumición de pasta en 2023 (Tasa respuesta: 99,85%)</t>
+          <t>Población según la frecuencia de consumo de pasta en 2023 (Tasa respuesta: 99,85%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -717,7 +717,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,7 +733,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>15,2%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>48,81%</t>
+          <t>48,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>56,97%</t>
+          <t>56,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>46,88%</t>
+          <t>46,74%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>52,45%</t>
+          <t>52,08%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>48,67%</t>
+          <t>48,29%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>53,1%</t>
+          <t>53,23%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,04%</t>
+          <t>26,74%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,22%</t>
+          <t>34,82%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,96%</t>
+          <t>29,84%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>35,32%</t>
+          <t>35,28%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>29,92%</t>
+          <t>29,5%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>33,96%</t>
+          <t>34,21%</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -996,12 +996,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,24%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,98%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,67%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>49,14%</t>
+          <t>48,48%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>55,87%</t>
+          <t>55,6%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>56,86%</t>
+          <t>56,63%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>65,68%</t>
+          <t>66,24%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>53,84%</t>
+          <t>53,9%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>59,99%</t>
+          <t>60,36%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>33,56%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>39,7%</t>
+          <t>39,63%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>27,77%</t>
+          <t>27,3%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>34,98%</t>
+          <t>35,16%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>31,45%</t>
+          <t>31,67%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>36,58%</t>
+          <t>36,67%</t>
         </is>
       </c>
     </row>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>7,51%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,91%</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>12,14%</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>51,91%</t>
+          <t>52,26%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>60,34%</t>
+          <t>61,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>54,68%</t>
+          <t>54,47%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>61,46%</t>
+          <t>61,59%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>54,69%</t>
+          <t>54,51%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>60,14%</t>
+          <t>60,0%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>27,23%</t>
+          <t>27,18%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>35,43%</t>
+          <t>35,39%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>29,89%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>26,38%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>31,61%</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,3%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,25%</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>8,24%</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>50,65%</t>
+          <t>50,77%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>55,77%</t>
+          <t>55,65%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,19 +2144,19 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>55,27%</t>
+          <t>55,24%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>61,88%</t>
+          <t>61,38%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
         <v>4912</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3981321</v>
+        <v>3981320</v>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>53,85%</t>
+          <t>53,89%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>57,69%</t>
+          <t>58,01%</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>36,94%</t>
+          <t>36,84%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,19 +2215,19 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>33,1%</t>
+          <t>33,03%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
         <v>2725</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>2367245</v>
+        <v>2367244</v>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>31,2%</t>
+          <t>31,13%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>34,47%</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>5,73%</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
         <v>8707</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>7171231</v>
+        <v>7171230</v>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
